--- a/biology/Botanique/Antheropeas_wallacei/Antheropeas_wallacei.xlsx
+++ b/biology/Botanique/Antheropeas_wallacei/Antheropeas_wallacei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antheropeas wallacei est une espèce de plante à fleurs de la famille des composées (Asteraceae). Certains auteurs considèrent que c'est son synonyme, Eriophyllum wallacei, qui est le nom valide de cette espèce.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante laineuse est très petite (de 1 à 10 cm de hauteur). Les tiges courtes sont velues et d'aspect grisâtre. Les feuilles qui mesurent 2 cm de longueur en moyenne, sont ovales[1]
-Appareil reproducteur
-La floraison a lieu entre mars et juin. Les années sèches, cette espèce annuelle est capable de produire leur premier capitule alors que l'individu ne mesure encore que 6 mm de hauteur. Dans des conditions plus humides, les tiges sont plus longues, parfois même ramifiées, portent davantage de capitules et produisent davantage de graines[1].
-L'inflorescence est un petit capitule jaune doré de 6 mm de diamètre : 5 à 10 petits fleurons ligulés de 3 mm de longueur, un peu ovalisés, entourent un petit nombre de fleurons tubulaires[1].
-Le fruit est un akène sombre, étroit, portant à son extrémité quelques écailles courtes.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante laineuse est très petite (de 1 à 10 cm de hauteur). Les tiges courtes sont velues et d'aspect grisâtre. Les feuilles qui mesurent 2 cm de longueur en moyenne, sont ovales
 </t>
         </is>
       </c>
@@ -544,13 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antheropeas wallacei vit dans quelques états du sud-ouest des États-Unis : Californie, Utah et Arizona.
-Elle pousse sur les sols sableux ou caillouteux des zones désertiques.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et juin. Les années sèches, cette espèce annuelle est capable de produire leur premier capitule alors que l'individu ne mesure encore que 6 mm de hauteur. Dans des conditions plus humides, les tiges sont plus longues, parfois même ramifiées, portent davantage de capitules et produisent davantage de graines.
+L'inflorescence est un petit capitule jaune doré de 6 mm de diamètre : 5 à 10 petits fleurons ligulés de 3 mm de longueur, un peu ovalisés, entourent un petit nombre de fleurons tubulaires.
+Le fruit est un akène sombre, étroit, portant à son extrémité quelques écailles courtes.
 </t>
         </is>
       </c>
@@ -576,10 +596,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antheropeas wallacei vit dans quelques états du sud-ouest des États-Unis : Californie, Utah et Arizona.
+Elle pousse sur les sols sableux ou caillouteux des zones désertiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antheropeas_wallacei</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antheropeas_wallacei</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Synonyme : Eriophyllum wallacei.
 </t>
